--- a/time_for_operations.xlsx
+++ b/time_for_operations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROfl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quyntrd\source\repos\NewRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED19A15-582C-4DE8-B798-2C985B1C1029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85ECF4E5-E149-466E-97A9-22144DD64364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -165,18 +165,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border diagonalDown="1">
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal style="thin">
         <color auto="1"/>
@@ -186,18 +201,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -483,18 +499,18 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -508,87 +524,87 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
